--- a/dataset/哈利波特/output/角色统计/哈利波特与凤凰社 第27章 角色统计.xlsx
+++ b/dataset/哈利波特/output/角色统计/哈利波特与凤凰社 第27章 角色统计.xlsx
@@ -52,12 +52,12 @@
     <t>纳威</t>
   </si>
   <si>
+    <t>麦格</t>
+  </si>
+  <si>
     <t>小天狼星</t>
   </si>
   <si>
-    <t>麦格</t>
-  </si>
-  <si>
     <t>格兰杰</t>
   </si>
   <si>
@@ -70,19 +70,19 @@
     <t>德拉科</t>
   </si>
   <si>
+    <t>斯普劳特</t>
+  </si>
+  <si>
     <t>小天狼星布莱克</t>
   </si>
   <si>
-    <t>斯普劳特</t>
+    <t>洛哈特</t>
   </si>
   <si>
     <t>海德薇</t>
   </si>
   <si>
     <t>费尔奇</t>
-  </si>
-  <si>
-    <t>洛哈特</t>
   </si>
   <si>
     <t>隆巴顿</t>
@@ -487,7 +487,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
@@ -575,7 +575,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B12" t="s">
         <v>12</v>
@@ -586,7 +586,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
@@ -619,7 +619,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B16" t="s">
         <v>16</v>
@@ -630,7 +630,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B17" t="s">
         <v>17</v>
@@ -641,7 +641,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B18" t="s">
         <v>18</v>
@@ -652,18 +652,18 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B19" t="s">
         <v>19</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B20" t="s">
         <v>20</v>
@@ -674,7 +674,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B21" t="s">
         <v>21</v>
@@ -685,7 +685,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B22" t="s">
         <v>22</v>
